--- a/owlcms/src/main/resources/agegroups/FHQ-AgeGroups_fr_CA.xlsx
+++ b/owlcms/src/main/resources/agegroups/FHQ-AgeGroups_fr_CA.xlsx
@@ -1,18 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\agegroups\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA9B00A-B5AA-4DFF-9143-03F72083EC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="2640" yWindow="2925" windowWidth="23985" windowHeight="11295" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BW Categories" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="AgeGroups" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="BW Categories" sheetId="1" r:id="rId1"/>
+    <sheet name="AgeGroups" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -21,596 +35,573 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="186">
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max_bw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR_SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR_JR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WR_YTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/List_of_world_records_in_Olympic_weightlifting#Men</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://en.wikipedia.org/wiki/List_of_junior_world_records_in_Olympic_weightlifting#Men</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M999 is always used as the last category in an age group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F999 is always used as the last category in an age group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">championshipName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#bodyweight categories or each age group (bodyweight category code followed by optional qualifying total, example: 45 80)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F40 36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F45 41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F49 49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F55 53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F59 57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F64 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F71 63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F999 67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F40 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F45 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F49 44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F55 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F59 54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F64 59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F71 66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F999 70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louis-Cyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F45 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F49 54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F55 58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F59 63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F64 67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F71 71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F76 75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F999 79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etudiant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F45 51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F49 57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F55 65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F59 72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F64 79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F71 87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F76 91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F999 94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collégial-Universitaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F45 85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F49 97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F55 104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F59 112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F64 117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F71 118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F76 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F81 124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F87 125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F999 135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maîtres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASTERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeunesse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IWF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F45 118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F49 126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F55 137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F59 144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F64 151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F71 160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F76 167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F81 172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F87 177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F999 186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ouvert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFAULT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M40 36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M45 41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M49 49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M55 53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M61 59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M67 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M73 68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M999 72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M40 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M45 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M49 44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M55 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M61 56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M67 62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M45 49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M49 54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M55 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M61 67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M67 72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M73 78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M81 84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M999 90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M49 62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M55 72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M61 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M67 89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M73 95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M81 103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M89 110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M999 115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M55 130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M61 146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M67 159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M73 169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M81 177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M89 181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M96 192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M102 194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M109 196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M999 208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M55 182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M61 198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M67 210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M73 223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M81 237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M89 249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M96 257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M102 265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M109 271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M999 284</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="185">
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>max_bw</t>
+  </si>
+  <si>
+    <t>WR_SR</t>
+  </si>
+  <si>
+    <t>WR_JR</t>
+  </si>
+  <si>
+    <t>WR_YTH</t>
+  </si>
+  <si>
+    <t>M35</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_world_records_in_Olympic_weightlifting#Men</t>
+  </si>
+  <si>
+    <t>M40</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_junior_world_records_in_Olympic_weightlifting#Men</t>
+  </si>
+  <si>
+    <t>M45</t>
+  </si>
+  <si>
+    <t>M49</t>
+  </si>
+  <si>
+    <t>M55</t>
+  </si>
+  <si>
+    <t>M61</t>
+  </si>
+  <si>
+    <t>M67</t>
+  </si>
+  <si>
+    <t>M73</t>
+  </si>
+  <si>
+    <t>M81</t>
+  </si>
+  <si>
+    <t>M89</t>
+  </si>
+  <si>
+    <t>M96</t>
+  </si>
+  <si>
+    <t>M102</t>
+  </si>
+  <si>
+    <t>M109</t>
+  </si>
+  <si>
+    <t>M999</t>
+  </si>
+  <si>
+    <t>M999 is always used as the last category in an age group</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>F71</t>
+  </si>
+  <si>
+    <t>F76</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>F999</t>
+  </si>
+  <si>
+    <t>F999 is always used as the last category in an age group</t>
+  </si>
+  <si>
+    <t>championshipName</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>#bodyweight categories or each age group (bodyweight category code followed by optional qualifying total, example: 45 80)</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>F40 36</t>
+  </si>
+  <si>
+    <t>F45 41</t>
+  </si>
+  <si>
+    <t>F49 49</t>
+  </si>
+  <si>
+    <t>F55 53</t>
+  </si>
+  <si>
+    <t>F59 57</t>
+  </si>
+  <si>
+    <t>F64 60</t>
+  </si>
+  <si>
+    <t>F71 63</t>
+  </si>
+  <si>
+    <t>F999 67</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>F40 35</t>
+  </si>
+  <si>
+    <t>F45 40</t>
+  </si>
+  <si>
+    <t>F49 44</t>
+  </si>
+  <si>
+    <t>F55 50</t>
+  </si>
+  <si>
+    <t>F59 54</t>
+  </si>
+  <si>
+    <t>F64 59</t>
+  </si>
+  <si>
+    <t>F71 66</t>
+  </si>
+  <si>
+    <t>F999 70</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Louis-Cyr</t>
+  </si>
+  <si>
+    <t>F45 46</t>
+  </si>
+  <si>
+    <t>F49 54</t>
+  </si>
+  <si>
+    <t>F55 58</t>
+  </si>
+  <si>
+    <t>F59 63</t>
+  </si>
+  <si>
+    <t>F64 67</t>
+  </si>
+  <si>
+    <t>F71 71</t>
+  </si>
+  <si>
+    <t>F76 75</t>
+  </si>
+  <si>
+    <t>F999 79</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Etudiant</t>
+  </si>
+  <si>
+    <t>F45 51</t>
+  </si>
+  <si>
+    <t>F49 57</t>
+  </si>
+  <si>
+    <t>F55 65</t>
+  </si>
+  <si>
+    <t>F59 72</t>
+  </si>
+  <si>
+    <t>F64 79</t>
+  </si>
+  <si>
+    <t>F71 87</t>
+  </si>
+  <si>
+    <t>F76 91</t>
+  </si>
+  <si>
+    <t>F999 94</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>Collégial-Universitaire</t>
+  </si>
+  <si>
+    <t>F45 85</t>
+  </si>
+  <si>
+    <t>F49 97</t>
+  </si>
+  <si>
+    <t>F55 104</t>
+  </si>
+  <si>
+    <t>F59 112</t>
+  </si>
+  <si>
+    <t>F64 117</t>
+  </si>
+  <si>
+    <t>F71 118</t>
+  </si>
+  <si>
+    <t>F76 123</t>
+  </si>
+  <si>
+    <t>F81 124</t>
+  </si>
+  <si>
+    <t>F87 125</t>
+  </si>
+  <si>
+    <t>F999 135</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>Maîtres</t>
+  </si>
+  <si>
+    <t>MASTERS</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F60</t>
+  </si>
+  <si>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F75</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>YTH</t>
+  </si>
+  <si>
+    <t>Jeunesse</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>F45 118</t>
+  </si>
+  <si>
+    <t>F49 126</t>
+  </si>
+  <si>
+    <t>F55 137</t>
+  </si>
+  <si>
+    <t>F59 144</t>
+  </si>
+  <si>
+    <t>F64 151</t>
+  </si>
+  <si>
+    <t>F71 160</t>
+  </si>
+  <si>
+    <t>F76 167</t>
+  </si>
+  <si>
+    <t>F81 172</t>
+  </si>
+  <si>
+    <t>F87 177</t>
+  </si>
+  <si>
+    <t>F999 186</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>Ouvert</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>M40 36</t>
+  </si>
+  <si>
+    <t>M45 41</t>
+  </si>
+  <si>
+    <t>M49 49</t>
+  </si>
+  <si>
+    <t>M55 53</t>
+  </si>
+  <si>
+    <t>M61 59</t>
+  </si>
+  <si>
+    <t>M67 64</t>
+  </si>
+  <si>
+    <t>M73 68</t>
+  </si>
+  <si>
+    <t>M999 72</t>
+  </si>
+  <si>
+    <t>M40 35</t>
+  </si>
+  <si>
+    <t>M45 40</t>
+  </si>
+  <si>
+    <t>M49 44</t>
+  </si>
+  <si>
+    <t>M55 50</t>
+  </si>
+  <si>
+    <t>M61 56</t>
+  </si>
+  <si>
+    <t>M67 62</t>
+  </si>
+  <si>
+    <t>M45 49</t>
+  </si>
+  <si>
+    <t>M49 54</t>
+  </si>
+  <si>
+    <t>M55 60</t>
+  </si>
+  <si>
+    <t>M61 67</t>
+  </si>
+  <si>
+    <t>M67 72</t>
+  </si>
+  <si>
+    <t>M73 78</t>
+  </si>
+  <si>
+    <t>M81 84</t>
+  </si>
+  <si>
+    <t>M999 90</t>
+  </si>
+  <si>
+    <t>M49 62</t>
+  </si>
+  <si>
+    <t>M55 72</t>
+  </si>
+  <si>
+    <t>M61 80</t>
+  </si>
+  <si>
+    <t>M67 89</t>
+  </si>
+  <si>
+    <t>M73 95</t>
+  </si>
+  <si>
+    <t>M81 103</t>
+  </si>
+  <si>
+    <t>M89 110</t>
+  </si>
+  <si>
+    <t>M999 115</t>
+  </si>
+  <si>
+    <t>M55 130</t>
+  </si>
+  <si>
+    <t>M61 146</t>
+  </si>
+  <si>
+    <t>M67 159</t>
+  </si>
+  <si>
+    <t>M73 169</t>
+  </si>
+  <si>
+    <t>M81 177</t>
+  </si>
+  <si>
+    <t>M89 181</t>
+  </si>
+  <si>
+    <t>M96 192</t>
+  </si>
+  <si>
+    <t>M102 194</t>
+  </si>
+  <si>
+    <t>M109 196</t>
+  </si>
+  <si>
+    <t>M999 208</t>
+  </si>
+  <si>
+    <t>M30</t>
+  </si>
+  <si>
+    <t>M50</t>
+  </si>
+  <si>
+    <t>M60</t>
+  </si>
+  <si>
+    <t>M65</t>
+  </si>
+  <si>
+    <t>M70</t>
+  </si>
+  <si>
+    <t>M75</t>
+  </si>
+  <si>
+    <t>M80</t>
+  </si>
+  <si>
+    <t>M85</t>
+  </si>
+  <si>
+    <t>M55 182</t>
+  </si>
+  <si>
+    <t>M61 198</t>
+  </si>
+  <si>
+    <t>M67 210</t>
+  </si>
+  <si>
+    <t>M73 223</t>
+  </si>
+  <si>
+    <t>M81 237</t>
+  </si>
+  <si>
+    <t>M89 249</t>
+  </si>
+  <si>
+    <t>M96 257</t>
+  </si>
+  <si>
+    <t>M102 265</t>
+  </si>
+  <si>
+    <t>M109 271</t>
+  </si>
+  <si>
+    <t>M999 284</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -627,7 +618,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -635,7 +626,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -658,7 +649,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -666,81 +657,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -799,62 +737,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285f4"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ea4335"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="fbbc04"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34a853"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="ff6d01"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46bdc6"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -884,7 +838,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -908,7 +862,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -968,28 +922,25 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,14 +961,14 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>35</v>
       </c>
       <c r="D2" s="1"/>
@@ -1027,14 +978,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="4">
         <v>40</v>
       </c>
       <c r="D3" s="1"/>
@@ -1044,14 +995,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="4">
         <v>45</v>
       </c>
       <c r="D4" s="1"/>
@@ -1059,446 +1010,446 @@
       <c r="F4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="4">
         <v>49</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="4">
         <v>221</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>55</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="4">
         <v>294</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="4">
         <v>264</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="4">
         <v>248</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>61</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>318</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="4">
         <v>293</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="4">
         <v>272</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>67</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="4">
         <v>339</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="4">
         <v>328</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="4">
         <v>299</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="4">
         <v>73</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="4">
         <v>363</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="4">
         <v>347</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="4">
         <v>306</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="4">
         <v>81</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="4">
         <v>378</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="4">
         <v>372</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="4">
         <v>327</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="4">
         <v>89</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="4">
         <v>387</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="4">
         <v>371</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="4">
         <v>357</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="4">
         <v>96</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="4">
         <v>416</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="4">
         <v>397</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="4">
         <v>354</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="4">
         <v>102</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="4">
         <v>412</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="4">
         <v>392</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="4">
         <v>377</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="4">
         <v>109</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="4">
         <v>435</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="4">
         <v>417</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="4">
         <v>999</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="4">
         <v>484</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="4">
         <v>432</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="4">
         <v>396</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="4">
         <v>35</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="4">
         <v>40</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="4">
         <v>135</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="4">
         <v>45</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="4">
         <v>179</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="4">
         <v>172</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="4">
         <v>49</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="4">
         <v>210</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="4">
         <v>206</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="4">
         <v>190</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="4">
         <v>55</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="4">
         <v>232</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="4">
         <v>211</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="4">
         <v>197</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="4">
         <v>59</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="4">
         <v>237</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="4">
         <v>228</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="4">
         <v>228</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="4">
         <v>64</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="4">
         <v>254</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="4">
         <v>240</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="4">
         <v>222</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="4">
         <v>71</v>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="4">
         <v>267</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="4">
         <v>252</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="4">
         <v>225</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="4">
         <v>76</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="4">
         <v>274</v>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="4">
         <v>259</v>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="F24" s="4">
         <v>229</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="4">
         <v>81</v>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="4">
         <v>283</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="4">
         <v>260</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="4">
         <v>231</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="4">
         <v>87</v>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="4">
         <v>294</v>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="4">
         <v>269</v>
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="4">
         <v>999</v>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="4">
         <v>330</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="4">
         <v>332</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="4">
         <v>255</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1507,36 +1458,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" location="Men" display="https://en.wikipedia.org/wiki/List_of_world_records_in_Olympic_weightlifting#Men"/>
-    <hyperlink ref="H3" r:id="rId2" location="Men" display="https://en.wikipedia.org/wiki/List_of_junior_world_records_in_Olympic_weightlifting#Men"/>
+    <hyperlink ref="H2" r:id="rId1" location="Men" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" location="Men" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="23.29"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1558,24 +1501,24 @@
       <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1588,14 +1531,14 @@
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="n">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G2" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1615,7 +1558,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -1628,14 +1571,14 @@
       <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="4">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="4">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G3" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H3" s="1"/>
@@ -1669,7 +1612,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -1682,14 +1625,14 @@
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="4">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="4">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G4" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
@@ -1723,7 +1666,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -1736,14 +1679,14 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="4">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="4">
         <v>15</v>
       </c>
-      <c r="G5" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G5" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H5" s="1"/>
@@ -1777,7 +1720,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -1790,14 +1733,14 @@
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="4">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="4">
         <v>17</v>
       </c>
-      <c r="G6" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G6" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H6" s="1"/>
@@ -1833,7 +1776,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -1846,14 +1789,14 @@
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="4">
         <v>12</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="4">
         <v>18</v>
       </c>
-      <c r="G7" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G7" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H7" s="1"/>
@@ -1887,7 +1830,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
@@ -1900,14 +1843,14 @@
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="4">
         <v>17</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="4">
         <v>30</v>
       </c>
-      <c r="G8" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G8" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H8" s="1"/>
@@ -1945,7 +1888,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>98</v>
       </c>
@@ -1958,14 +1901,14 @@
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="4">
         <v>30</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="4">
         <v>34</v>
       </c>
-      <c r="G9" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G9" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H9" s="1"/>
@@ -2003,7 +1946,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -2016,14 +1959,14 @@
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="4">
         <v>35</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="4">
         <v>39</v>
       </c>
-      <c r="G10" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G10" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H10" s="1"/>
@@ -2061,7 +2004,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -2074,14 +2017,14 @@
       <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="4">
         <v>40</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="4">
         <v>44</v>
       </c>
-      <c r="G11" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G11" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H11" s="1"/>
@@ -2119,7 +2062,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -2132,14 +2075,14 @@
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="4">
         <v>45</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="4">
         <v>49</v>
       </c>
-      <c r="G12" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G12" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H12" s="1"/>
@@ -2177,7 +2120,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
@@ -2190,14 +2133,14 @@
       <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="4">
         <v>50</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="4">
         <v>54</v>
       </c>
-      <c r="G13" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G13" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H13" s="1"/>
@@ -2235,7 +2178,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -2248,14 +2191,14 @@
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="4">
         <v>55</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="4">
         <v>59</v>
       </c>
-      <c r="G14" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G14" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H14" s="1"/>
@@ -2293,7 +2236,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -2306,14 +2249,14 @@
       <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="4">
         <v>60</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="4">
         <v>64</v>
       </c>
-      <c r="G15" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G15" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H15" s="1"/>
@@ -2351,7 +2294,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -2364,14 +2307,14 @@
       <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="4">
         <v>65</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="4">
         <v>69</v>
       </c>
-      <c r="G16" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G16" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H16" s="1"/>
@@ -2409,7 +2352,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
@@ -2422,14 +2365,14 @@
       <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="4">
         <v>70</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="4">
         <v>74</v>
       </c>
-      <c r="G17" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G17" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H17" s="1"/>
@@ -2467,7 +2410,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -2480,14 +2423,14 @@
       <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="4">
         <v>75</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="4">
         <v>79</v>
       </c>
-      <c r="G18" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G18" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H18" s="1"/>
@@ -2525,7 +2468,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>106</v>
       </c>
@@ -2538,14 +2481,14 @@
       <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="4">
         <v>80</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="4">
         <v>84</v>
       </c>
-      <c r="G19" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G19" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H19" s="1"/>
@@ -2583,7 +2526,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>107</v>
       </c>
@@ -2596,14 +2539,14 @@
       <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="4">
         <v>85</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="4">
         <v>999</v>
       </c>
-      <c r="G20" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G20" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H20" s="1"/>
@@ -2641,7 +2584,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>108</v>
       </c>
@@ -2649,19 +2592,19 @@
         <v>109</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="4">
         <v>13</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="4">
         <v>17</v>
       </c>
-      <c r="G21" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G21" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H21" s="1"/>
@@ -2699,27 +2642,27 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="F22" s="4" t="n">
+      <c r="E22" s="4">
+        <v>13</v>
+      </c>
+      <c r="F22" s="4">
         <v>20</v>
       </c>
-      <c r="G22" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G22" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H22" s="1"/>
@@ -2757,85 +2700,85 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="4">
         <v>15</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="4">
         <v>999</v>
       </c>
-      <c r="G23" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G23" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4" t="n">
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
         <v>999</v>
       </c>
-      <c r="G24" s="9" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="G24" s="7" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -2877,7 +2820,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -2890,14 +2833,14 @@
       <c r="D25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4" t="n">
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
         <v>10</v>
       </c>
-      <c r="G25" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G25" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -2917,7 +2860,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -2930,40 +2873,40 @@
       <c r="D26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="4">
         <v>10</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="4">
         <v>12</v>
       </c>
-      <c r="G26" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G26" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2971,7 +2914,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2984,40 +2927,40 @@
       <c r="D27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="4">
         <v>11</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="4">
         <v>13</v>
       </c>
-      <c r="G27" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G27" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="O27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -3025,7 +2968,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,46 +2981,46 @@
       <c r="D28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="4">
         <v>13</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="F28" s="4">
         <v>15</v>
       </c>
-      <c r="G28" s="9" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="G28" s="7" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>75</v>
       </c>
@@ -3090,14 +3033,14 @@
       <c r="D29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="4">
         <v>12</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="4">
         <v>17</v>
       </c>
-      <c r="G29" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G29" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H29" s="1"/>
@@ -3134,7 +3077,7 @@
       </c>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -3147,47 +3090,47 @@
       <c r="D30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="4">
         <v>12</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="4">
         <v>18</v>
       </c>
-      <c r="G30" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G30" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
@@ -3200,14 +3143,14 @@
       <c r="D31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="4">
         <v>17</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="4">
         <v>30</v>
       </c>
-      <c r="G31" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G31" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H31" s="1"/>
@@ -3215,39 +3158,39 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="R31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="S31" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="T31" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="U31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>99</v>
@@ -3258,14 +3201,14 @@
       <c r="D32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="4" t="n">
+      <c r="E32" s="4">
         <v>30</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F32" s="4">
         <v>34</v>
       </c>
-      <c r="G32" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G32" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H32" s="1"/>
@@ -3303,7 +3246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -3316,14 +3259,14 @@
       <c r="D33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E33" s="4">
         <v>35</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F33" s="4">
         <v>39</v>
       </c>
-      <c r="G33" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G33" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H33" s="1"/>
@@ -3361,7 +3304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -3374,14 +3317,14 @@
       <c r="D34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="4" t="n">
+      <c r="E34" s="4">
         <v>40</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="4">
         <v>44</v>
       </c>
-      <c r="G34" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G34" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H34" s="1"/>
@@ -3419,7 +3362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -3432,14 +3375,14 @@
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="E35" s="4">
         <v>45</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="F35" s="4">
         <v>49</v>
       </c>
-      <c r="G35" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G35" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H35" s="1"/>
@@ -3477,9 +3420,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>99</v>
@@ -3490,14 +3433,14 @@
       <c r="D36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="4" t="n">
+      <c r="E36" s="4">
         <v>50</v>
       </c>
-      <c r="F36" s="4" t="n">
+      <c r="F36" s="4">
         <v>54</v>
       </c>
-      <c r="G36" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G36" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H36" s="1"/>
@@ -3535,7 +3478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -3548,14 +3491,14 @@
       <c r="D37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="4" t="n">
+      <c r="E37" s="4">
         <v>55</v>
       </c>
-      <c r="F37" s="4" t="n">
+      <c r="F37" s="4">
         <v>59</v>
       </c>
-      <c r="G37" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G37" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H37" s="1"/>
@@ -3593,9 +3536,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>99</v>
@@ -3606,14 +3549,14 @@
       <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="4" t="n">
+      <c r="E38" s="4">
         <v>60</v>
       </c>
-      <c r="F38" s="4" t="n">
+      <c r="F38" s="4">
         <v>64</v>
       </c>
-      <c r="G38" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G38" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H38" s="1"/>
@@ -3651,9 +3594,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>99</v>
@@ -3664,14 +3607,14 @@
       <c r="D39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="4" t="n">
+      <c r="E39" s="4">
         <v>65</v>
       </c>
-      <c r="F39" s="4" t="n">
+      <c r="F39" s="4">
         <v>69</v>
       </c>
-      <c r="G39" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G39" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H39" s="1"/>
@@ -3709,9 +3652,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>99</v>
@@ -3722,14 +3665,14 @@
       <c r="D40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="4" t="n">
+      <c r="E40" s="4">
         <v>70</v>
       </c>
-      <c r="F40" s="4" t="n">
+      <c r="F40" s="4">
         <v>74</v>
       </c>
-      <c r="G40" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G40" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H40" s="1"/>
@@ -3767,9 +3710,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>99</v>
@@ -3780,14 +3723,14 @@
       <c r="D41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="4" t="n">
+      <c r="E41" s="4">
         <v>75</v>
       </c>
-      <c r="F41" s="4" t="n">
+      <c r="F41" s="4">
         <v>79</v>
       </c>
-      <c r="G41" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G41" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H41" s="1"/>
@@ -3825,9 +3768,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>99</v>
@@ -3838,14 +3781,14 @@
       <c r="D42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="4" t="n">
+      <c r="E42" s="4">
         <v>80</v>
       </c>
-      <c r="F42" s="4" t="n">
+      <c r="F42" s="4">
         <v>84</v>
       </c>
-      <c r="G42" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G42" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H42" s="1"/>
@@ -3883,9 +3826,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>99</v>
@@ -3896,14 +3839,14 @@
       <c r="D43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="4" t="n">
+      <c r="E43" s="4">
         <v>85</v>
       </c>
-      <c r="F43" s="4" t="n">
+      <c r="F43" s="4">
         <v>999</v>
       </c>
-      <c r="G43" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G43" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H43" s="1"/>
@@ -3941,7 +3884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>108</v>
       </c>
@@ -3949,19 +3892,19 @@
         <v>109</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="4" t="n">
+      <c r="E44" s="4">
         <v>13</v>
       </c>
-      <c r="F44" s="4" t="n">
+      <c r="F44" s="4">
         <v>17</v>
       </c>
-      <c r="G44" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G44" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H44" s="1"/>
@@ -3999,27 +3942,27 @@
       </c>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="F45" s="4" t="n">
+      <c r="E45" s="4">
+        <v>13</v>
+      </c>
+      <c r="F45" s="4">
         <v>20</v>
       </c>
-      <c r="G45" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G45" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H45" s="1"/>
@@ -4027,57 +3970,57 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="S45" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="T45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="T45" s="1" t="s">
+      <c r="U45" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="U45" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="4" t="n">
+      <c r="E46" s="4">
         <v>15</v>
       </c>
-      <c r="F46" s="4" t="n">
+      <c r="F46" s="4">
         <v>999</v>
       </c>
-      <c r="G46" s="9" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G46" s="7" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H46" s="1"/>
@@ -4085,57 +4028,57 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="O46" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="P46" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="P46" s="1" t="s">
+      <c r="Q46" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="R46" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="S46" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="T46" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="T46" s="1" t="s">
+      <c r="U46" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="U46" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4" t="n">
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
         <v>999</v>
       </c>
-      <c r="G47" s="9" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="G47" s="7" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -4182,12 +4125,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/owlcms/src/main/resources/agegroups/FHQ-AgeGroups_fr_CA.xlsx
+++ b/owlcms/src/main/resources/agegroups/FHQ-AgeGroups_fr_CA.xlsx
@@ -1,32 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\agegroups\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA9B00A-B5AA-4DFF-9143-03F72083EC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2925" windowWidth="23985" windowHeight="11295" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BW Categories" sheetId="1" r:id="rId1"/>
-    <sheet name="AgeGroups" sheetId="2" r:id="rId2"/>
+    <sheet name="BW Categories" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="AgeGroups" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -35,573 +21,596 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="185">
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>max_bw</t>
-  </si>
-  <si>
-    <t>WR_SR</t>
-  </si>
-  <si>
-    <t>WR_JR</t>
-  </si>
-  <si>
-    <t>WR_YTH</t>
-  </si>
-  <si>
-    <t>M35</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_world_records_in_Olympic_weightlifting#Men</t>
-  </si>
-  <si>
-    <t>M40</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_junior_world_records_in_Olympic_weightlifting#Men</t>
-  </si>
-  <si>
-    <t>M45</t>
-  </si>
-  <si>
-    <t>M49</t>
-  </si>
-  <si>
-    <t>M55</t>
-  </si>
-  <si>
-    <t>M61</t>
-  </si>
-  <si>
-    <t>M67</t>
-  </si>
-  <si>
-    <t>M73</t>
-  </si>
-  <si>
-    <t>M81</t>
-  </si>
-  <si>
-    <t>M89</t>
-  </si>
-  <si>
-    <t>M96</t>
-  </si>
-  <si>
-    <t>M102</t>
-  </si>
-  <si>
-    <t>M109</t>
-  </si>
-  <si>
-    <t>M999</t>
-  </si>
-  <si>
-    <t>M999 is always used as the last category in an age group</t>
-  </si>
-  <si>
-    <t>F35</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>F40</t>
-  </si>
-  <si>
-    <t>F45</t>
-  </si>
-  <si>
-    <t>F49</t>
-  </si>
-  <si>
-    <t>F55</t>
-  </si>
-  <si>
-    <t>F59</t>
-  </si>
-  <si>
-    <t>F64</t>
-  </si>
-  <si>
-    <t>F71</t>
-  </si>
-  <si>
-    <t>F76</t>
-  </si>
-  <si>
-    <t>F81</t>
-  </si>
-  <si>
-    <t>F87</t>
-  </si>
-  <si>
-    <t>F999</t>
-  </si>
-  <si>
-    <t>F999 is always used as the last category in an age group</t>
-  </si>
-  <si>
-    <t>championshipName</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>#bodyweight categories or each age group (bodyweight category code followed by optional qualifying total, example: 45 80)</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
-    <t>U12</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>Mini</t>
-  </si>
-  <si>
-    <t>F40 36</t>
-  </si>
-  <si>
-    <t>F45 41</t>
-  </si>
-  <si>
-    <t>F49 49</t>
-  </si>
-  <si>
-    <t>F55 53</t>
-  </si>
-  <si>
-    <t>F59 57</t>
-  </si>
-  <si>
-    <t>F64 60</t>
-  </si>
-  <si>
-    <t>F71 63</t>
-  </si>
-  <si>
-    <t>F999 67</t>
-  </si>
-  <si>
-    <t>U13</t>
-  </si>
-  <si>
-    <t>F40 35</t>
-  </si>
-  <si>
-    <t>F45 40</t>
-  </si>
-  <si>
-    <t>F49 44</t>
-  </si>
-  <si>
-    <t>F55 50</t>
-  </si>
-  <si>
-    <t>F59 54</t>
-  </si>
-  <si>
-    <t>F64 59</t>
-  </si>
-  <si>
-    <t>F71 66</t>
-  </si>
-  <si>
-    <t>F999 70</t>
-  </si>
-  <si>
-    <t>LC</t>
-  </si>
-  <si>
-    <t>Louis-Cyr</t>
-  </si>
-  <si>
-    <t>F45 46</t>
-  </si>
-  <si>
-    <t>F49 54</t>
-  </si>
-  <si>
-    <t>F55 58</t>
-  </si>
-  <si>
-    <t>F59 63</t>
-  </si>
-  <si>
-    <t>F64 67</t>
-  </si>
-  <si>
-    <t>F71 71</t>
-  </si>
-  <si>
-    <t>F76 75</t>
-  </si>
-  <si>
-    <t>F999 79</t>
-  </si>
-  <si>
-    <t>U17</t>
-  </si>
-  <si>
-    <t>ET</t>
-  </si>
-  <si>
-    <t>Etudiant</t>
-  </si>
-  <si>
-    <t>F45 51</t>
-  </si>
-  <si>
-    <t>F49 57</t>
-  </si>
-  <si>
-    <t>F55 65</t>
-  </si>
-  <si>
-    <t>F59 72</t>
-  </si>
-  <si>
-    <t>F64 79</t>
-  </si>
-  <si>
-    <t>F71 87</t>
-  </si>
-  <si>
-    <t>F76 91</t>
-  </si>
-  <si>
-    <t>F999 94</t>
-  </si>
-  <si>
-    <t>CU</t>
-  </si>
-  <si>
-    <t>Collégial-Universitaire</t>
-  </si>
-  <si>
-    <t>F45 85</t>
-  </si>
-  <si>
-    <t>F49 97</t>
-  </si>
-  <si>
-    <t>F55 104</t>
-  </si>
-  <si>
-    <t>F59 112</t>
-  </si>
-  <si>
-    <t>F64 117</t>
-  </si>
-  <si>
-    <t>F71 118</t>
-  </si>
-  <si>
-    <t>F76 123</t>
-  </si>
-  <si>
-    <t>F81 124</t>
-  </si>
-  <si>
-    <t>F87 125</t>
-  </si>
-  <si>
-    <t>F999 135</t>
-  </si>
-  <si>
-    <t>F30</t>
-  </si>
-  <si>
-    <t>Maîtres</t>
-  </si>
-  <si>
-    <t>MASTERS</t>
-  </si>
-  <si>
-    <t>F50</t>
-  </si>
-  <si>
-    <t>F60</t>
-  </si>
-  <si>
-    <t>F65</t>
-  </si>
-  <si>
-    <t>F70</t>
-  </si>
-  <si>
-    <t>F75</t>
-  </si>
-  <si>
-    <t>F80</t>
-  </si>
-  <si>
-    <t>F85</t>
-  </si>
-  <si>
-    <t>YTH</t>
-  </si>
-  <si>
-    <t>Jeunesse</t>
-  </si>
-  <si>
-    <t>JR</t>
-  </si>
-  <si>
-    <t>Junior</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>Senior</t>
-  </si>
-  <si>
-    <t>F45 118</t>
-  </si>
-  <si>
-    <t>F49 126</t>
-  </si>
-  <si>
-    <t>F55 137</t>
-  </si>
-  <si>
-    <t>F59 144</t>
-  </si>
-  <si>
-    <t>F64 151</t>
-  </si>
-  <si>
-    <t>F71 160</t>
-  </si>
-  <si>
-    <t>F76 167</t>
-  </si>
-  <si>
-    <t>F81 172</t>
-  </si>
-  <si>
-    <t>F87 177</t>
-  </si>
-  <si>
-    <t>F999 186</t>
-  </si>
-  <si>
-    <t>OPEN</t>
-  </si>
-  <si>
-    <t>Ouvert</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>M40 36</t>
-  </si>
-  <si>
-    <t>M45 41</t>
-  </si>
-  <si>
-    <t>M49 49</t>
-  </si>
-  <si>
-    <t>M55 53</t>
-  </si>
-  <si>
-    <t>M61 59</t>
-  </si>
-  <si>
-    <t>M67 64</t>
-  </si>
-  <si>
-    <t>M73 68</t>
-  </si>
-  <si>
-    <t>M999 72</t>
-  </si>
-  <si>
-    <t>M40 35</t>
-  </si>
-  <si>
-    <t>M45 40</t>
-  </si>
-  <si>
-    <t>M49 44</t>
-  </si>
-  <si>
-    <t>M55 50</t>
-  </si>
-  <si>
-    <t>M61 56</t>
-  </si>
-  <si>
-    <t>M67 62</t>
-  </si>
-  <si>
-    <t>M45 49</t>
-  </si>
-  <si>
-    <t>M49 54</t>
-  </si>
-  <si>
-    <t>M55 60</t>
-  </si>
-  <si>
-    <t>M61 67</t>
-  </si>
-  <si>
-    <t>M67 72</t>
-  </si>
-  <si>
-    <t>M73 78</t>
-  </si>
-  <si>
-    <t>M81 84</t>
-  </si>
-  <si>
-    <t>M999 90</t>
-  </si>
-  <si>
-    <t>M49 62</t>
-  </si>
-  <si>
-    <t>M55 72</t>
-  </si>
-  <si>
-    <t>M61 80</t>
-  </si>
-  <si>
-    <t>M67 89</t>
-  </si>
-  <si>
-    <t>M73 95</t>
-  </si>
-  <si>
-    <t>M81 103</t>
-  </si>
-  <si>
-    <t>M89 110</t>
-  </si>
-  <si>
-    <t>M999 115</t>
-  </si>
-  <si>
-    <t>M55 130</t>
-  </si>
-  <si>
-    <t>M61 146</t>
-  </si>
-  <si>
-    <t>M67 159</t>
-  </si>
-  <si>
-    <t>M73 169</t>
-  </si>
-  <si>
-    <t>M81 177</t>
-  </si>
-  <si>
-    <t>M89 181</t>
-  </si>
-  <si>
-    <t>M96 192</t>
-  </si>
-  <si>
-    <t>M102 194</t>
-  </si>
-  <si>
-    <t>M109 196</t>
-  </si>
-  <si>
-    <t>M999 208</t>
-  </si>
-  <si>
-    <t>M30</t>
-  </si>
-  <si>
-    <t>M50</t>
-  </si>
-  <si>
-    <t>M60</t>
-  </si>
-  <si>
-    <t>M65</t>
-  </si>
-  <si>
-    <t>M70</t>
-  </si>
-  <si>
-    <t>M75</t>
-  </si>
-  <si>
-    <t>M80</t>
-  </si>
-  <si>
-    <t>M85</t>
-  </si>
-  <si>
-    <t>M55 182</t>
-  </si>
-  <si>
-    <t>M61 198</t>
-  </si>
-  <si>
-    <t>M67 210</t>
-  </si>
-  <si>
-    <t>M73 223</t>
-  </si>
-  <si>
-    <t>M81 237</t>
-  </si>
-  <si>
-    <t>M89 249</t>
-  </si>
-  <si>
-    <t>M96 257</t>
-  </si>
-  <si>
-    <t>M102 265</t>
-  </si>
-  <si>
-    <t>M109 271</t>
-  </si>
-  <si>
-    <t>M999 284</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="186">
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_bw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WR_SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WR_JR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WR_YTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/List_of_world_records_in_Olympic_weightlifting#Men</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/List_of_junior_world_records_in_Olympic_weightlifting#Men</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M999 is always used as the last category in an age group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F999 is always used as the last category in an age group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">championshipName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#bodyweight categories or each age group (bodyweight category code followed by optional qualifying total, example: 45 80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F40 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F45 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F49 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F55 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F59 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F64 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F71 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F999 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F40 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F45 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F49 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F55 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F59 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F64 59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F71 66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F999 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louis-Cyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F45 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F49 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F55 58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F59 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F64 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F71 71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F76 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F999 79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etudiant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F45 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F49 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F55 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F59 72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F64 79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F71 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F76 91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F999 94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collégial-Universitaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F45 85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F49 97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F55 104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F59 112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F64 117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F71 118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F76 123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F81 124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F87 125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F999 135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maîtres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeunesse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IWF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F45 118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F49 126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F55 137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F59 144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F64 151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F71 160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F76 167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F81 172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F87 177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F999 186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouvert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFAULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M40 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M45 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M49 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M55 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M61 59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M67 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M73 68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M999 72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M40 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M45 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M49 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M55 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M61 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M67 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M45 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M49 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M55 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M61 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M67 72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M73 78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M81 84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M999 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M49 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M55 72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M61 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M67 89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M73 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M81 103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M89 110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M999 115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M55 130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M61 146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M67 159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M73 169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M81 177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M89 181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M96 192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M102 194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M109 196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M999 208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M55 182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M61 198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M67 210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M73 223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M81 237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M89 249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M96 257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M102 265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M109 271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M999 284</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -618,7 +627,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -626,7 +635,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -649,7 +658,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -657,28 +666,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="10">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -737,78 +799,62 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -838,7 +884,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -862,7 +908,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -922,25 +968,28 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,14 +1010,14 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="4" t="n">
         <v>35</v>
       </c>
       <c r="D2" s="1"/>
@@ -978,14 +1027,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D3" s="1"/>
@@ -995,14 +1044,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="4" t="n">
         <v>45</v>
       </c>
       <c r="D4" s="1"/>
@@ -1010,446 +1059,446 @@
       <c r="F4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="4" t="n">
         <v>49</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="4">
+      <c r="F5" s="4" t="n">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>294</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="4" t="n">
         <v>264</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="4" t="n">
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="4" t="n">
         <v>61</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="n">
         <v>318</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="4" t="n">
         <v>293</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="4" t="n">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="4" t="n">
         <v>67</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>339</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="4" t="n">
         <v>328</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="4" t="n">
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="4" t="n">
         <v>73</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="4" t="n">
         <v>363</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="4" t="n">
         <v>347</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="4" t="n">
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="4" t="n">
         <v>81</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="n">
         <v>378</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="4" t="n">
         <v>372</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="4" t="n">
         <v>327</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="4" t="n">
         <v>89</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="4" t="n">
         <v>387</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="4" t="n">
         <v>371</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="4" t="n">
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="4" t="n">
         <v>96</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="4" t="n">
         <v>416</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="4" t="n">
         <v>397</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="4" t="n">
         <v>354</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="4" t="n">
         <v>102</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="4" t="n">
         <v>412</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="4" t="n">
         <v>392</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="4" t="n">
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="4" t="n">
         <v>109</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="4" t="n">
         <v>435</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="4" t="n">
         <v>417</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="4" t="n">
         <v>484</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="4" t="n">
         <v>432</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="4" t="n">
         <v>396</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="4" t="n">
         <v>35</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="4" t="n">
         <v>40</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="4">
+      <c r="F17" s="4" t="n">
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="4" t="n">
         <v>45</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="4">
+      <c r="E18" s="4" t="n">
         <v>179</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="4" t="n">
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="4" t="n">
         <v>210</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="4" t="n">
         <v>206</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="4" t="n">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="4" t="n">
         <v>232</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="4" t="n">
         <v>211</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="4" t="n">
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="4" t="n">
         <v>59</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="4" t="n">
         <v>237</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="4" t="n">
         <v>228</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="4" t="n">
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="4" t="n">
         <v>254</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="4" t="n">
         <v>240</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="4" t="n">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="4" t="n">
         <v>71</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="4" t="n">
         <v>267</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="4" t="n">
         <v>252</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="4" t="n">
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="4" t="n">
         <v>76</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="4" t="n">
         <v>274</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="4" t="n">
         <v>259</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="4" t="n">
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="4" t="n">
         <v>81</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="4" t="n">
         <v>283</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="4" t="n">
         <v>260</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="4" t="n">
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="4" t="n">
         <v>294</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="4" t="n">
         <v>269</v>
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="4" t="n">
         <v>330</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="4" t="n">
         <v>332</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="4" t="n">
         <v>255</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1458,28 +1507,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" location="Men" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H3" r:id="rId2" location="Men" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H2" r:id="rId1" location="Men" display="https://en.wikipedia.org/wiki/List_of_world_records_in_Olympic_weightlifting#Men"/>
+    <hyperlink ref="H3" r:id="rId2" location="Men" display="https://en.wikipedia.org/wiki/List_of_junior_world_records_in_Olympic_weightlifting#Men"/>
   </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="23.29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1501,24 +1558,24 @@
       <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1531,14 +1588,14 @@
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G2" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1558,7 +1615,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -1571,14 +1628,14 @@
       <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="G3" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G3" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H3" s="1"/>
@@ -1612,7 +1669,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -1625,14 +1682,14 @@
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="G4" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G4" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
@@ -1666,7 +1723,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -1679,14 +1736,14 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="G5" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G5" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H5" s="1"/>
@@ -1720,7 +1777,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -1733,14 +1790,14 @@
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="G6" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G6" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H6" s="1"/>
@@ -1776,7 +1833,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -1789,14 +1846,14 @@
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="G7" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G7" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H7" s="1"/>
@@ -1830,7 +1887,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
@@ -1843,14 +1900,14 @@
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="G8" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G8" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H8" s="1"/>
@@ -1888,7 +1945,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>98</v>
       </c>
@@ -1901,14 +1958,14 @@
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="G9" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G9" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H9" s="1"/>
@@ -1946,7 +2003,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1959,14 +2016,14 @@
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="G10" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G10" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H10" s="1"/>
@@ -2004,7 +2061,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -2017,14 +2074,14 @@
       <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="G11" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G11" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H11" s="1"/>
@@ -2062,7 +2119,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -2075,14 +2132,14 @@
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="G12" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G12" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H12" s="1"/>
@@ -2120,7 +2177,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
@@ -2133,14 +2190,14 @@
       <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="G13" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G13" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H13" s="1"/>
@@ -2178,7 +2235,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -2191,14 +2248,14 @@
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="4" t="n">
         <v>59</v>
       </c>
-      <c r="G14" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G14" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H14" s="1"/>
@@ -2236,7 +2293,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -2249,14 +2306,14 @@
       <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="G15" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G15" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H15" s="1"/>
@@ -2294,7 +2351,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -2307,14 +2364,14 @@
       <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="G16" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G16" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H16" s="1"/>
@@ -2352,7 +2409,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
@@ -2365,14 +2422,14 @@
       <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="G17" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G17" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H17" s="1"/>
@@ -2410,7 +2467,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -2423,14 +2480,14 @@
       <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="G18" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G18" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H18" s="1"/>
@@ -2468,7 +2525,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>106</v>
       </c>
@@ -2481,14 +2538,14 @@
       <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="4" t="n">
         <v>84</v>
       </c>
-      <c r="G19" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G19" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H19" s="1"/>
@@ -2526,7 +2583,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>107</v>
       </c>
@@ -2539,14 +2596,14 @@
       <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="G20" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G20" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H20" s="1"/>
@@ -2584,7 +2641,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>108</v>
       </c>
@@ -2592,19 +2649,19 @@
         <v>109</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="G21" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G21" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H21" s="1"/>
@@ -2642,27 +2699,27 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="4">
-        <v>13</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="E22" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F22" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="G22" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G22" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H22" s="1"/>
@@ -2700,85 +2757,85 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="G23" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G23" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="E24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="G24" s="7" t="b">
-        <f>TRUE()</f>
+      <c r="G24" s="9" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -2820,7 +2877,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -2833,14 +2890,14 @@
       <c r="D25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="E25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="G25" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G25" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -2860,7 +2917,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -2873,40 +2930,40 @@
       <c r="D26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="G26" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G26" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2914,7 +2971,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,40 +2984,40 @@
       <c r="D27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="G27" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G27" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -2968,7 +3025,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,46 +3038,46 @@
       <c r="D28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="G28" s="7" t="b">
-        <f>TRUE()</f>
+      <c r="G28" s="9" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>75</v>
       </c>
@@ -3033,14 +3090,14 @@
       <c r="D29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="G29" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G29" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H29" s="1"/>
@@ -3077,7 +3134,7 @@
       </c>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -3090,47 +3147,47 @@
       <c r="D30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="G30" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G30" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
@@ -3143,14 +3200,14 @@
       <c r="D31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="G31" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G31" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H31" s="1"/>
@@ -3158,39 +3215,39 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>99</v>
@@ -3201,14 +3258,14 @@
       <c r="D32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="G32" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G32" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H32" s="1"/>
@@ -3246,7 +3303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -3259,14 +3316,14 @@
       <c r="D33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="G33" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G33" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H33" s="1"/>
@@ -3304,7 +3361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -3317,14 +3374,14 @@
       <c r="D34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="G34" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G34" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H34" s="1"/>
@@ -3362,7 +3419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
@@ -3375,14 +3432,14 @@
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="G35" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G35" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H35" s="1"/>
@@ -3420,9 +3477,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>99</v>
@@ -3433,14 +3490,14 @@
       <c r="D36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="G36" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G36" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H36" s="1"/>
@@ -3478,7 +3535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -3491,14 +3548,14 @@
       <c r="D37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="4" t="n">
         <v>59</v>
       </c>
-      <c r="G37" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G37" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H37" s="1"/>
@@ -3536,9 +3593,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>99</v>
@@ -3549,14 +3606,14 @@
       <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="G38" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G38" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H38" s="1"/>
@@ -3594,9 +3651,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>99</v>
@@ -3607,14 +3664,14 @@
       <c r="D39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="G39" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G39" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H39" s="1"/>
@@ -3652,9 +3709,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>99</v>
@@ -3665,14 +3722,14 @@
       <c r="D40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="G40" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G40" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H40" s="1"/>
@@ -3710,9 +3767,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>99</v>
@@ -3723,14 +3780,14 @@
       <c r="D41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="G41" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G41" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H41" s="1"/>
@@ -3768,9 +3825,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>99</v>
@@ -3781,14 +3838,14 @@
       <c r="D42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="4" t="n">
         <v>84</v>
       </c>
-      <c r="G42" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G42" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H42" s="1"/>
@@ -3826,9 +3883,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>99</v>
@@ -3839,14 +3896,14 @@
       <c r="D43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="G43" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G43" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H43" s="1"/>
@@ -3884,7 +3941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>108</v>
       </c>
@@ -3892,19 +3949,19 @@
         <v>109</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="G44" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G44" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H44" s="1"/>
@@ -3942,27 +3999,27 @@
       </c>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="4">
-        <v>13</v>
-      </c>
-      <c r="F45" s="4">
+      <c r="E45" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F45" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="G45" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G45" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H45" s="1"/>
@@ -3970,57 +4027,57 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="G46" s="7" t="b">
-        <f>FALSE()</f>
+      <c r="G46" s="9" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H46" s="1"/>
@@ -4028,57 +4085,57 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
+      <c r="E47" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4" t="n">
         <v>999</v>
       </c>
-      <c r="G47" s="7" t="b">
-        <f>TRUE()</f>
+      <c r="G47" s="9" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -4125,7 +4182,12 @@
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>